--- a/Investment/THS/AutoTrade/data/position/Lhw_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Lhw_position.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +426,154 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>持仓天数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>炫娇踏雪</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华培动力</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SH603121</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>炫娇踏雪</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中兵红箭</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SZ000519</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
